--- a/Final Report - Draft 5/RedundancyCoding.xlsx
+++ b/Final Report - Draft 5/RedundancyCoding.xlsx
@@ -9,18 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27960" windowHeight="11310"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27960" windowHeight="11310" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RedundancyCoding" sheetId="1" r:id="rId1"/>
     <sheet name="Metric" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>Whiley</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Different Object Type</t>
+  </si>
+  <si>
+    <t>Similar</t>
   </si>
 </sst>
 </file>
@@ -885,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,125 +1064,147 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
       <c r="B3">
+        <v>52</v>
+      </c>
+      <c r="C3">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>8</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>17</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <f>SUM(B3:B9)</f>
+        <f>SUM(B3:B7)</f>
+        <v>76</v>
+      </c>
+      <c r="C10">
+        <f>SUM(C3:C9)</f>
         <v>24</v>
-      </c>
-      <c r="C10">
-        <f>SUM(C3:C7)</f>
-        <v>20</v>
       </c>
       <c r="D10">
         <f>SUM(D3:D7)</f>
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <f>SUM(E3:E7)</f>
         <v>10</v>
       </c>
     </row>
